--- a/ConfigFiles/ConfigNL.xlsx
+++ b/ConfigFiles/ConfigNL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="158">
   <si>
     <t>Default value</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Simulation Type</t>
   </si>
   <si>
-    <t>MILP</t>
-  </si>
-  <si>
     <t>LP</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>NTC</t>
   </si>
   <si>
-    <t>Clustering</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -462,9 +456,6 @@
     <t>Simulations/simulationNL</t>
   </si>
   <si>
-    <t>Simulation of the Dutch power system, isolated. The hydro plants and the reservoirs are decribed with a high level of details</t>
-  </si>
-  <si>
     <t>Scaled inflows</t>
   </si>
   <si>
@@ -472,6 +463,33 @@
   </si>
   <si>
     <t>Database/AvailabilityFactors/##/1h/2015_withBEVS.csv</t>
+  </si>
+  <si>
+    <t>Simulation of the Dutch power system including electric vehicles. They are considered as a variable-capacity storage unit, whose value is provided in the availability factor data</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Integer clustering</t>
+  </si>
+  <si>
+    <t>No clustering</t>
+  </si>
+  <si>
+    <t>Price of Lignite</t>
+  </si>
+  <si>
+    <t>Price of Peat</t>
+  </si>
+  <si>
+    <t>Heat Demand</t>
+  </si>
+  <si>
+    <t>Price of unserved heat</t>
+  </si>
+  <si>
+    <t>Load Shedding Cost</t>
   </si>
 </sst>
 </file>
@@ -560,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -621,9 +639,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,7 +978,7 @@
   <dimension ref="A1:H170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,16 +995,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="A1" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="3" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1003,15 +1018,15 @@
     </row>
     <row r="3" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="B4" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" s="9" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
@@ -1025,17 +1040,17 @@
     </row>
     <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
@@ -1067,11 +1082,11 @@
         <v>39</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D18" s="14"/>
       <c r="H18" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1085,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1099,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1113,18 +1128,18 @@
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1164,7 @@
         <v>42005</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1163,29 +1178,29 @@
         <v>42369</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C33" s="4">
         <v>4</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -1200,22 +1215,15 @@
     <row r="42" spans="1:8" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:8" s="9" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="9" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="C45" s="17"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="4" t="b">
-        <v>1</v>
-      </c>
+    <row r="46" spans="1:8" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1223,34 +1231,32 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="14"/>
+        <v>150</v>
+      </c>
       <c r="H47" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="14"/>
+        <v>63</v>
+      </c>
       <c r="H48" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>4</v>
@@ -1258,7 +1264,6 @@
       <c r="C49" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="D49" s="14"/>
     </row>
     <row r="50" spans="1:8" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="1:8" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1285,11 +1290,11 @@
       <c r="B62" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="23" t="s">
-        <v>96</v>
+      <c r="C62" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="H62" s="12"/>
     </row>
@@ -1300,12 +1305,12 @@
       <c r="B63" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="25"/>
-      <c r="D63" s="23" t="s">
-        <v>96</v>
+      <c r="C63" s="24"/>
+      <c r="D63" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -1315,14 +1320,14 @@
       <c r="B64" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="D64" s="23" t="s">
-        <v>96</v>
+      <c r="C64" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -1332,11 +1337,11 @@
       <c r="B65" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>96</v>
+      <c r="C65" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -1346,9 +1351,9 @@
       <c r="B66" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="23" t="s">
-        <v>96</v>
+      <c r="C66" s="25"/>
+      <c r="D66" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>0</v>
@@ -1357,67 +1362,67 @@
         <v>0.05</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D67" s="23" t="s">
+      <c r="C67" s="25" t="s">
         <v>96</v>
       </c>
+      <c r="D67" s="22" t="s">
+        <v>94</v>
+      </c>
       <c r="H67" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C68" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="D68" s="23" t="s">
-        <v>96</v>
+      <c r="C68" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C69" s="26"/>
-      <c r="D69" s="23" t="s">
-        <v>96</v>
+      <c r="C69" s="25"/>
+      <c r="D69" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="26"/>
-      <c r="D70" s="23"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,16 +1432,16 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>96</v>
+      <c r="C71" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>0</v>
@@ -1447,16 +1452,16 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C72" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D72" s="23" t="s">
-        <v>96</v>
+      <c r="C72" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>0</v>
@@ -1465,21 +1470,21 @@
         <v>20</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>96</v>
+      <c r="C73" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>0</v>
@@ -1490,16 +1495,16 @@
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C74" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>96</v>
+      <c r="C74" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>0</v>
@@ -1510,14 +1515,14 @@
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="26"/>
-      <c r="D75" s="23" t="s">
-        <v>96</v>
+      <c r="C75" s="25"/>
+      <c r="D75" s="22" t="s">
+        <v>94</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>0</v>
@@ -1526,26 +1531,102 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="C77" s="22"/>
-    </row>
-    <row r="78" spans="1:8" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:8" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="25"/>
+      <c r="D77" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C78" s="25"/>
+      <c r="D78" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="25"/>
+      <c r="D79" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="25"/>
+      <c r="D80" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="5">
+        <v>400</v>
+      </c>
+    </row>
     <row r="82" spans="1:6" ht="9.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="84" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1556,13 +1637,13 @@
     <row r="86" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B87" s="6"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="31" t="s">
-        <v>57</v>
+      <c r="A88" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>24</v>
@@ -1578,7 +1659,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
+      <c r="A89" s="30"/>
       <c r="B89" s="7" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +1674,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="31"/>
+      <c r="A90" s="30"/>
       <c r="B90" s="7" t="s">
         <v>6</v>
       </c>
@@ -1608,7 +1689,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="7" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1704,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="7" t="s">
         <v>17</v>
       </c>
@@ -1638,7 +1719,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
+      <c r="A93" s="30"/>
       <c r="B93" s="7" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1734,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
+      <c r="A94" s="30"/>
       <c r="B94" s="7" t="s">
         <v>9</v>
       </c>
@@ -1668,7 +1749,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
+      <c r="A95" s="30"/>
       <c r="B95" s="7" t="s">
         <v>8</v>
       </c>
@@ -1683,7 +1764,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
+      <c r="A96" s="30"/>
       <c r="B96" s="7" t="s">
         <v>10</v>
       </c>
@@ -1698,7 +1779,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="31"/>
+      <c r="A97" s="30"/>
       <c r="B97" s="7" t="s">
         <v>12</v>
       </c>
@@ -1713,7 +1794,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="31"/>
+      <c r="A98" s="30"/>
       <c r="B98" s="7" t="s">
         <v>13</v>
       </c>
@@ -1728,7 +1809,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
+      <c r="A99" s="30"/>
       <c r="B99" s="7" t="s">
         <v>30</v>
       </c>
@@ -1743,7 +1824,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
+      <c r="A100" s="30"/>
       <c r="B100" s="7" t="s">
         <v>14</v>
       </c>
@@ -1758,7 +1839,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="31"/>
+      <c r="A101" s="30"/>
       <c r="B101" s="7" t="s">
         <v>15</v>
       </c>
@@ -1773,7 +1854,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="31"/>
+      <c r="A102" s="30"/>
       <c r="B102" s="7" t="s">
         <v>21</v>
       </c>
@@ -1799,7 +1880,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -1807,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C112" s="5">
         <v>1</v>
@@ -1815,38 +1896,38 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="5">
+        <v>1</v>
+      </c>
+      <c r="H113" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C113" s="5">
-        <v>1</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C114" s="5">
         <v>1</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C115" s="5">
         <v>1</v>
@@ -1870,139 +1951,147 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="29" t="s">
+      <c r="B132" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C132" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C133" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C134" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C132" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="29" t="s">
+      <c r="C135" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C133" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="29" t="s">
+      <c r="C136" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C134" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="29" t="s">
+      <c r="C137" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C135" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="29" t="s">
+      <c r="C138" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="C136" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="29" t="s">
+      <c r="C139" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="C137" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="29" t="s">
+      <c r="C140" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C138" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="29" t="s">
+      <c r="C141" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C139" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="29" t="s">
+      <c r="C142" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C140" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="29" t="s">
+      <c r="C143" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="C141" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="29" t="s">
+      <c r="C144" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C142" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="29" t="s">
+      <c r="C145" s="27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C143" s="28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C144" s="28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="C145" s="28" t="b">
+      <c r="C146" s="27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F165" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="168" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F168" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F169" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="170" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F170" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +2101,7 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B4:H4"/>
   </mergeCells>
-  <dataValidations count="13">
+  <dataValidations count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the outage data" prompt="Select the path the outage csv file from the database._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C63"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path the simulation directory" prompt="All inputs are saved in the so-called simulation directory, which includes, excel , gdx and pickle files together with the GAMS files._x000a__x000a_The path should be relative to this excel file. Use &quot;..&quot; to go up one folder. Folder separator can be either &quot;/&quot; or &quot;\&quot;" sqref="C18:D18"/>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Start day of the simulation" prompt="This is the simulated day. It must be comprised within the range of dates provided within the data files." sqref="C31:D31">
@@ -2024,7 +2113,7 @@
       <formula2>73051</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Historical interconnection flows" prompt="Historical flows" sqref="C68"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F70:F74"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F70:F74 F77:F78 F80:F81"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the demand curves of all the zones by the provided factor" sqref="C112"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the wind generation curves of all the zones by the provided factor" sqref="C113"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Multiplicative Factor" prompt="This modifier multiplies the PV generation curves of all the zones by the provided factor" sqref="C114"/>
@@ -2032,17 +2121,25 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Path to the gams folder" prompt="Example:_x000a_C:\GAMS\win64\24.3_x000a__x000a_If unspecified or non-existing, Dispa-SET will try to determine the path automatically. " sqref="C22"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (% of max load)" prompt="In case no data file is provided. This single value is used for all the sets._x000a_It is defined in % of the maximum load throughout the simulation period." sqref="F66"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Default value (in EUR/t_co2)" prompt="In case no data file is provided. This single value is used for all the sets." sqref="F75"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Look Ahead Period" prompt="This is the overlap period between consecutive optimization of the rolling horizon._x000a__x000a_If HorizonLength is 3 and  LookAhead is 1, optimization length is 4 days, discarding 1 day each time" sqref="C34">
+      <formula1>0</formula1>
+      <formula2>365</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Horizon length" prompt="This is the number of days to be optimized in the rolling horizon framework. Does not include the overlap period with the next optimization horizon. _x000a__x000a_If HorizonLength is 3 and  LookAhead is 1, optimization length is 4 days, discarding 1 day each time" sqref="C33">
+      <formula1>1</formula1>
+      <formula2>365</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F88:G102 C88:C102 C132:C145</xm:sqref>
+          <xm:sqref>F88:G102 C88:C102</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Write excel files" prompt="If set to true, one excel file per parameter will be written in the simulation environment directory.">
           <x14:formula1>
@@ -2060,13 +2157,7 @@
           <x14:formula1>
             <xm:f>Lists!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C46:D46 C21:D21</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Simulation type" prompt="Select the type of optimization to perform.">
-          <x14:formula1>
-            <xm:f>Lists!$B$2:$B$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>D47:D49 C47</xm:sqref>
+          <xm:sqref>C21:D21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Reserve Calculation" prompt="This inputs allows selecting the metodology for reserve sizing_x000a_">
           <x14:formula1>
@@ -2080,6 +2171,18 @@
           </x14:formula1>
           <xm:sqref>C49</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Lists!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C132:C146</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Simulation type" prompt="Select the type of optimization to perform.">
+          <x14:formula1>
+            <xm:f>Lists!$B$2:$B$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>C47</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2088,10 +2191,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,10 +2213,10 @@
         <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,13 +2224,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,23 +2238,31 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -2175,750 +2286,750 @@
   <sheetData>
     <row r="1" spans="1:15" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="E1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="K1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="L1" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="N1" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="O1" s="20" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O2" s="27" t="b">
+        <v>100</v>
+      </c>
+      <c r="B2" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" s="27" t="b">
+        <v>101</v>
+      </c>
+      <c r="B3" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O4" s="27" t="b">
+        <v>102</v>
+      </c>
+      <c r="B4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N5" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="27" t="b">
+        <v>103</v>
+      </c>
+      <c r="B5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" s="27" t="b">
+        <v>104</v>
+      </c>
+      <c r="B6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="27" t="b">
+        <v>105</v>
+      </c>
+      <c r="B7" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="27" t="b">
+        <v>106</v>
+      </c>
+      <c r="B8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N9" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="27" t="b">
+        <v>107</v>
+      </c>
+      <c r="B9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N10" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="27" t="b">
+        <v>108</v>
+      </c>
+      <c r="B10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N11" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O11" s="27" t="b">
+        <v>109</v>
+      </c>
+      <c r="B11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" s="27" t="b">
+        <v>110</v>
+      </c>
+      <c r="B12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="N13" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" s="27" t="b">
+        <v>111</v>
+      </c>
+      <c r="B13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="N14" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" s="27" t="b">
+        <v>112</v>
+      </c>
+      <c r="B14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="N14" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" s="26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N15" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O15" s="27" t="b">
+        <v>113</v>
+      </c>
+      <c r="B15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O15" s="26" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N16" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="O16" s="27" t="b">
+        <v>114</v>
+      </c>
+      <c r="B16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="26" t="b">
         <v>0</v>
       </c>
     </row>
